--- a/data/trans_camb/P16B06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 15,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 8,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 5,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 8,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 6,02</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 19,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 9,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 6,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 9,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 6,59</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,82</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 24,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 19,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 17,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 15,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 13,61</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 33,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 24,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 22,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 21,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 18,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 16,12</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; 66,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 80,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,07; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,02; 19,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; 25,71</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,98; 243,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 403,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,07; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,04; 24,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,56; 35,57</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 16,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 15,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 7,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 5,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 6,9</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 20,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 19,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 8,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 6,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 9,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 7,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B06-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,94</t>
+          <t>0,0; 20,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 15,85</t>
+          <t>-6,37; 14,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 8,77</t>
+          <t>-1,16; 7,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,82</t>
+          <t>-5,22; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 8,96</t>
+          <t>-0,0; 8,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 6,02</t>
+          <t>-3,92; 6,28</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,36</t>
+          <t>0,0; 26,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 19,3</t>
+          <t>-6,46; 17,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,65</t>
+          <t>-1,18; 8,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 6,4</t>
+          <t>-5,3; 6,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 9,83</t>
+          <t>0,01; 9,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,59</t>
+          <t>-4,01; 6,97</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 24,82</t>
+          <t>-2,49; 25,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 19,45</t>
+          <t>-9,68; 19,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 17,91</t>
+          <t>0,0; 18,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 17,63</t>
+          <t>-1,09; 17,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 15,05</t>
+          <t>0,02; 14,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 13,61</t>
+          <t>-1,75; 14,19</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 33,61</t>
+          <t>-2,5; 34,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 24,91</t>
+          <t>-9,93; 25,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 22,0</t>
+          <t>0,0; 22,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 21,68</t>
+          <t>-1,1; 21,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 18,06</t>
+          <t>0,02; 17,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 16,12</t>
+          <t>-1,79; 16,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 66,64</t>
+          <t>-25,67; 65,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,17</t>
+          <t>0,0; 80,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 0,0</t>
+          <t>-52,86; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 0,0</t>
+          <t>-33,76; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 19,07</t>
+          <t>-26,12; 23,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 25,71</t>
+          <t>-10,09; 27,57</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 243,01</t>
+          <t>-30,24; 189,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 403,93</t>
+          <t>0,0; 409,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 0,0</t>
+          <t>-52,86; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 0,0</t>
+          <t>-33,76; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 24,28</t>
+          <t>-27,72; 32,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 35,57</t>
+          <t>-10,18; 41,15</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 16,83</t>
+          <t>-0,13; 16,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 15,7</t>
+          <t>-2,61; 16,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,57</t>
+          <t>-0,74; 7,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,86</t>
+          <t>-3,15; 5,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,89</t>
+          <t>0,59; 7,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,9</t>
+          <t>-1,35; 6,42</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 20,87</t>
+          <t>-0,05; 20,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 19,05</t>
+          <t>-2,73; 19,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,36</t>
+          <t>-0,75; 8,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 6,48</t>
+          <t>-3,25; 6,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,98</t>
+          <t>0,65; 8,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,74</t>
+          <t>-1,39; 7,11</t>
         </is>
       </c>
     </row>
